--- a/Modelo/Matriz/Matriz_de_Adyacencia_Pensiones_v5.xlsx
+++ b/Modelo/Matriz/Matriz_de_Adyacencia_Pensiones_v5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21a7d57e8591b932/Escritorio/CICS/2025/Tesis/Modelo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21a7d57e8591b932/Escritorio/CICS/2025/Tesis/Objetivos de Aprendizaje/Modelo/Matriz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="347" documentId="8_{00D88C31-2993-4F88-955D-B3AEA2AC3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34FAB4AB-0C65-4E7B-A273-A9B8592586EF}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="8_{00D88C31-2993-4F88-955D-B3AEA2AC3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B67C65-DAE3-4558-9A34-6802BCA39C9D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E85862A8-A9B5-4BB7-B4AF-3D0252E6C1A3}"/>
   </bookViews>
@@ -1324,8 +1324,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD69CEB-FB4B-428B-8D1B-77C5ED66F830}">
   <dimension ref="A1:BO67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,14 +1565,14 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2">
         <v>1</v>
@@ -1721,15 +1724,21 @@
       <c r="A3" t="s">
         <v>58</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
@@ -1794,9 +1803,6 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="F5">
         <v>1</v>
       </c>
@@ -1869,9 +1875,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2084,9 +2088,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3">
         <v>1</v>
       </c>
@@ -2166,9 +2168,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>

--- a/Modelo/Matriz/Matriz_de_Adyacencia_Pensiones_v5.xlsx
+++ b/Modelo/Matriz/Matriz_de_Adyacencia_Pensiones_v5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21a7d57e8591b932/Escritorio/CICS/2025/Tesis/Objetivos de Aprendizaje/Modelo/Matriz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="8_{00D88C31-2993-4F88-955D-B3AEA2AC3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B67C65-DAE3-4558-9A34-6802BCA39C9D}"/>
+  <xr:revisionPtr revIDLastSave="446" documentId="8_{00D88C31-2993-4F88-955D-B3AEA2AC3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5800AF2-AC9B-4134-8F00-7511137D3E75}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E85862A8-A9B5-4BB7-B4AF-3D0252E6C1A3}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$BP$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$BO$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1325,10 +1325,10 @@
   <dimension ref="A1:BO67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1336,7 @@
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="7" max="9" width="11.42578125" customWidth="1"/>
+    <col min="4" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="15" width="11.42578125" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" customWidth="1"/>
@@ -1346,8 +1346,7 @@
     <col min="24" max="25" width="10.85546875" customWidth="1"/>
     <col min="26" max="26" width="13.28515625" customWidth="1"/>
     <col min="27" max="27" width="13.5703125" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" customWidth="1"/>
-    <col min="33" max="41" width="11.42578125" customWidth="1"/>
+    <col min="28" max="41" width="11.42578125" customWidth="1"/>
     <col min="42" max="42" width="13.85546875" customWidth="1"/>
     <col min="43" max="55" width="11.42578125" customWidth="1"/>
     <col min="56" max="62" width="10.85546875" customWidth="1"/>
@@ -2048,12 +2047,6 @@
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -2257,9 +2250,6 @@
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -2731,9 +2721,6 @@
       <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
     </row>
     <row r="28" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -2879,9 +2866,7 @@
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
-      <c r="AS29" s="2">
-        <v>1</v>
-      </c>
+      <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
@@ -3178,12 +3163,6 @@
       <c r="AV35">
         <v>1</v>
       </c>
-      <c r="AW35">
-        <v>1</v>
-      </c>
-      <c r="AY35">
-        <v>1</v>
-      </c>
     </row>
     <row r="36" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
@@ -3244,13 +3223,9 @@
       <c r="AV36" s="3">
         <v>1</v>
       </c>
-      <c r="AW36" s="3">
-        <v>1</v>
-      </c>
+      <c r="AW36" s="3"/>
       <c r="AX36" s="3"/>
-      <c r="AY36" s="3">
-        <v>1</v>
-      </c>
+      <c r="AY36" s="3"/>
       <c r="AZ36" s="3"/>
       <c r="BA36" s="3"/>
       <c r="BB36" s="3"/>
@@ -3284,12 +3259,6 @@
       <c r="AV37">
         <v>1</v>
       </c>
-      <c r="AW37">
-        <v>1</v>
-      </c>
-      <c r="AY37">
-        <v>1</v>
-      </c>
     </row>
     <row r="38" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3316,9 +3285,6 @@
         <v>1</v>
       </c>
       <c r="AC39">
-        <v>1</v>
-      </c>
-      <c r="AD39">
         <v>1</v>
       </c>
       <c r="AF39">
@@ -3554,9 +3520,7 @@
       <c r="AC42" s="2">
         <v>1</v>
       </c>
-      <c r="AD42" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2">
         <v>1</v>
@@ -3840,9 +3804,7 @@
       <c r="AV45" s="2">
         <v>1</v>
       </c>
-      <c r="AW45" s="2">
-        <v>1</v>
-      </c>
+      <c r="AW45" s="2"/>
       <c r="AX45" s="2"/>
       <c r="AY45" s="2"/>
       <c r="AZ45" s="2">
@@ -3900,9 +3862,6 @@
         <v>1</v>
       </c>
       <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AS47">
         <v>1</v>
       </c>
     </row>
@@ -4060,9 +4019,7 @@
       <c r="AX49" s="2">
         <v>1</v>
       </c>
-      <c r="AY49" s="2">
-        <v>1</v>
-      </c>
+      <c r="AY49" s="2"/>
       <c r="AZ49" s="2">
         <v>1</v>
       </c>
@@ -4433,9 +4390,7 @@
       <c r="BB56" s="3"/>
       <c r="BC56" s="3"/>
       <c r="BD56" s="3"/>
-      <c r="BE56" s="3">
-        <v>1</v>
-      </c>
+      <c r="BE56" s="3"/>
       <c r="BF56" s="3"/>
       <c r="BG56" s="3"/>
       <c r="BH56" s="3"/>
@@ -4809,9 +4764,7 @@
       <c r="BH66" s="2"/>
       <c r="BI66" s="2"/>
       <c r="BJ66" s="2"/>
-      <c r="BK66" s="2">
-        <v>1</v>
-      </c>
+      <c r="BK66" s="2"/>
       <c r="BL66" s="2"/>
       <c r="BM66" s="2"/>
       <c r="BN66" s="2"/>
@@ -4891,6 +4844,7 @@
       <c r="BO67" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BO67" xr:uid="{7DD69CEB-FB4B-428B-8D1B-77C5ED66F830}"/>
   <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="63" priority="1565"/>
   </conditionalFormatting>
